--- a/classification/droptc/sentence/drone-sbert/freeze/90995999/prediction.xlsx
+++ b/classification/droptc/sentence/drone-sbert/freeze/90995999/prediction.xlsx
@@ -478,19 +478,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E2" t="b">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6972870230674744</v>
+        <v>0.9998894929885864</v>
       </c>
     </row>
     <row r="3">
@@ -506,19 +506,19 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E3" t="b">
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9408268332481384</v>
+        <v>0.999849796295166</v>
       </c>
     </row>
     <row r="4">
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.986084520816803</v>
+        <v>0.999881386756897</v>
       </c>
     </row>
     <row r="5">
@@ -562,19 +562,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8737672567367554</v>
+        <v>0.9993744492530823</v>
       </c>
     </row>
     <row r="6">
@@ -590,19 +590,19 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9066675901412964</v>
+        <v>0.9998736381530762</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9875621795654297</v>
+        <v>0.9998849630355835</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9864423274993896</v>
+        <v>0.9999057054519653</v>
       </c>
     </row>
     <row r="9">
@@ -674,19 +674,19 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8535377979278564</v>
+        <v>0.9998849630355835</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9833111763000488</v>
+        <v>0.9999057054519653</v>
       </c>
     </row>
     <row r="11">
@@ -730,19 +730,19 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9058195352554321</v>
+        <v>0.9998966455459595</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9855607151985168</v>
+        <v>0.9999136924743652</v>
       </c>
     </row>
     <row r="13">
@@ -786,19 +786,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9870462417602539</v>
+        <v>0.9996573925018311</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9833094477653503</v>
+        <v>0.9998977184295654</v>
       </c>
     </row>
     <row r="15">
@@ -847,14 +847,14 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7859997749328613</v>
+        <v>0.9998915195465088</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9875920414924622</v>
+        <v>0.9998695850372314</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9871634244918823</v>
+        <v>0.9998730421066284</v>
       </c>
     </row>
     <row r="18">
@@ -926,19 +926,19 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9847704172134399</v>
+        <v>0.9988124370574951</v>
       </c>
     </row>
     <row r="19">
@@ -959,14 +959,14 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9121257662773132</v>
+        <v>0.9998942613601685</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9862232804298401</v>
+        <v>0.9999135732650757</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9861460328102112</v>
+        <v>0.9998824596405029</v>
       </c>
     </row>
     <row r="22">
@@ -1038,19 +1038,19 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E22" t="b">
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9523208737373352</v>
+        <v>0.999897837638855</v>
       </c>
     </row>
     <row r="23">
@@ -1066,19 +1066,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9273619055747986</v>
+        <v>0.999891996383667</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9854394197463989</v>
+        <v>0.9998983144760132</v>
       </c>
     </row>
     <row r="25">
@@ -1122,19 +1122,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E25" t="b">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9072803258895874</v>
+        <v>0.9993388056755066</v>
       </c>
     </row>
     <row r="26">
@@ -1150,19 +1150,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E26" t="b">
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9846323728561401</v>
+        <v>0.9950472116470337</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9870588183403015</v>
+        <v>0.9998929500579834</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9847232103347778</v>
+        <v>0.999849796295166</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9833111763000488</v>
+        <v>0.9998860359191895</v>
       </c>
     </row>
     <row r="30">
@@ -1262,19 +1262,19 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E30" t="b">
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9055106639862061</v>
+        <v>0.9998726844787598</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9875681400299072</v>
+        <v>0.9998493194580078</v>
       </c>
     </row>
     <row r="32">
@@ -1318,19 +1318,19 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E32" t="b">
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9460893273353577</v>
+        <v>0.9998879432678223</v>
       </c>
     </row>
     <row r="33">
@@ -1346,19 +1346,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E33" t="b">
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9877146482467651</v>
+        <v>0.9996758699417114</v>
       </c>
     </row>
     <row r="34">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1383,10 +1383,10 @@
         </is>
       </c>
       <c r="E34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9037355184555054</v>
+        <v>0.9996746778488159</v>
       </c>
     </row>
     <row r="35">
@@ -1402,19 +1402,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E35" t="b">
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9863102436065674</v>
+        <v>0.9995668530464172</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9867467880249023</v>
+        <v>0.9998838901519775</v>
       </c>
     </row>
     <row r="37">
@@ -1458,19 +1458,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E37" t="b">
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.876743495464325</v>
+        <v>0.9996142387390137</v>
       </c>
     </row>
     <row r="38">
@@ -1486,19 +1486,19 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E38" t="b">
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.8500494956970215</v>
+        <v>0.9999070167541504</v>
       </c>
     </row>
     <row r="39">
@@ -1514,19 +1514,19 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9307411313056946</v>
+        <v>0.998124897480011</v>
       </c>
     </row>
     <row r="40">
@@ -1542,19 +1542,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9856317043304443</v>
+        <v>0.9996680021286011</v>
       </c>
     </row>
     <row r="41">
@@ -1570,19 +1570,19 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E41" t="b">
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9472100734710693</v>
+        <v>0.9999059438705444</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.986480712890625</v>
+        <v>0.7540667057037354</v>
       </c>
     </row>
     <row r="43">
@@ -1626,19 +1626,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E43" t="b">
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9869645237922668</v>
+        <v>0.9996163845062256</v>
       </c>
     </row>
     <row r="44">
@@ -1654,19 +1654,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E44" t="b">
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9834680557250977</v>
+        <v>0.9994783997535706</v>
       </c>
     </row>
     <row r="45">
@@ -1682,19 +1682,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E45" t="b">
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.8475703597068787</v>
+        <v>0.9997226595878601</v>
       </c>
     </row>
     <row r="46">
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9541847109794617</v>
+        <v>0.9996416568756104</v>
       </c>
     </row>
     <row r="47">
@@ -1738,19 +1738,19 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9832910299301147</v>
+        <v>0.909497857093811</v>
       </c>
     </row>
     <row r="48">
@@ -1766,19 +1766,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E48" t="b">
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9785970449447632</v>
+        <v>0.9996066689491272</v>
       </c>
     </row>
     <row r="49">
@@ -1794,19 +1794,19 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E49" t="b">
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.8737672567367554</v>
+        <v>0.9999144077301025</v>
       </c>
     </row>
     <row r="50">
@@ -1822,19 +1822,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E50" t="b">
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9093267917633057</v>
+        <v>0.9994452595710754</v>
       </c>
     </row>
     <row r="51">
@@ -1850,19 +1850,19 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9872305989265442</v>
+        <v>0.9991834759712219</v>
       </c>
     </row>
     <row r="52">
@@ -1878,19 +1878,19 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.8854195475578308</v>
+        <v>0.9998465776443481</v>
       </c>
     </row>
     <row r="53">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E53" t="b">
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9095704555511475</v>
+        <v>0.9994452595710754</v>
       </c>
     </row>
     <row r="54">
@@ -1934,19 +1934,19 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>SurroundingEnvironment</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>SoftwareFault</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Normal</t>
         </is>
       </c>
       <c r="E54" t="b">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9866093993186951</v>
+        <v>0.9994499087333679</v>
       </c>
     </row>
     <row r="55">
@@ -1962,19 +1962,19 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E55" t="b">
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.8432313799858093</v>
+        <v>0.9998848438262939</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9846627712249756</v>
+        <v>0.9999088048934937</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9855278134346008</v>
+        <v>0.9999130964279175</v>
       </c>
     </row>
     <row r="58">
@@ -2058,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.8996124267578125</v>
+        <v>0.9995842576026917</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9833111763000488</v>
+        <v>0.9999135732650757</v>
       </c>
     </row>
     <row r="60">
@@ -2102,19 +2102,19 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E60" t="b">
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9154037237167358</v>
+        <v>0.9999024868011475</v>
       </c>
     </row>
     <row r="61">
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9878737330436707</v>
+        <v>0.9999064207077026</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.986816942691803</v>
+        <v>0.9999022483825684</v>
       </c>
     </row>
     <row r="63">
@@ -2186,19 +2186,19 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E63" t="b">
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9847210049629211</v>
+        <v>0.999488353729248</v>
       </c>
     </row>
     <row r="64">
@@ -2214,7 +2214,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9411099553108215</v>
+        <v>0.9972483515739441</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4183521270751953</v>
+        <v>0.99957674741745</v>
       </c>
     </row>
     <row r="66">
@@ -2270,19 +2270,19 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.4328856468200684</v>
+        <v>0.99957674741745</v>
       </c>
     </row>
     <row r="67">
@@ -2298,19 +2298,19 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E67" t="b">
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9860077500343323</v>
+        <v>0.999491810798645</v>
       </c>
     </row>
     <row r="68">
@@ -2326,19 +2326,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E68" t="b">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9831252694129944</v>
+        <v>0.99957674741745</v>
       </c>
     </row>
     <row r="69">
@@ -2354,19 +2354,19 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E69" t="b">
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.4189850986003876</v>
+        <v>0.9995884299278259</v>
       </c>
     </row>
     <row r="70">
@@ -2382,19 +2382,19 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E70" t="b">
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.8676791787147522</v>
+        <v>0.9998831748962402</v>
       </c>
     </row>
     <row r="71">
@@ -2410,19 +2410,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9846633672714233</v>
+        <v>0.9995361566543579</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9833111763000488</v>
+        <v>0.9998040795326233</v>
       </c>
     </row>
     <row r="73">
@@ -2478,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.8996126055717468</v>
+        <v>0.9996209144592285</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9846620559692383</v>
+        <v>0.9998995065689087</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9849303960800171</v>
+        <v>0.9998717308044434</v>
       </c>
     </row>
     <row r="76">
@@ -2550,19 +2550,19 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E76" t="b">
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9471966028213501</v>
+        <v>0.9996209144592285</v>
       </c>
     </row>
     <row r="77">
@@ -2583,14 +2583,14 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9140205383300781</v>
+        <v>0.9998483657836914</v>
       </c>
     </row>
     <row r="78">
@@ -2606,19 +2606,19 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E78" t="b">
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9833094477653503</v>
+        <v>0.9996209144592285</v>
       </c>
     </row>
     <row r="79">
@@ -2634,19 +2634,19 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E79" t="b">
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9137009382247925</v>
+        <v>0.9998936653137207</v>
       </c>
     </row>
     <row r="80">
@@ -2662,19 +2662,19 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E80" t="b">
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9857455492019653</v>
+        <v>0.9996137022972107</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9862061142921448</v>
+        <v>0.9998509883880615</v>
       </c>
     </row>
     <row r="82">
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9057319760322571</v>
+        <v>0.9996137022972107</v>
       </c>
     </row>
     <row r="83">
@@ -2746,19 +2746,19 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E83" t="b">
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.8780623078346252</v>
+        <v>0.9998507499694824</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9877071976661682</v>
+        <v>0.9998507499694824</v>
       </c>
     </row>
     <row r="85">
@@ -2802,19 +2802,19 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E85" t="b">
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.4667360484600067</v>
+        <v>0.9999157190322876</v>
       </c>
     </row>
     <row r="86">
@@ -2830,19 +2830,19 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E86" t="b">
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9864675998687744</v>
+        <v>0.9996384382247925</v>
       </c>
     </row>
     <row r="87">
@@ -2858,19 +2858,19 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E87" t="b">
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.4048537909984589</v>
+        <v>0.999890923500061</v>
       </c>
     </row>
     <row r="88">
@@ -2886,19 +2886,19 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9541519284248352</v>
+        <v>0.9996098875999451</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9848048686981201</v>
+        <v>0.9998492002487183</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9847235679626465</v>
+        <v>0.9998973608016968</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9871000051498413</v>
+        <v>0.9998975992202759</v>
       </c>
     </row>
     <row r="92">
@@ -2998,19 +2998,19 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E92" t="b">
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9099527597427368</v>
+        <v>0.9998975992202759</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9860274791717529</v>
+        <v>0.9998974800109863</v>
       </c>
     </row>
     <row r="94">
@@ -3054,19 +3054,19 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E94" t="b">
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.955031156539917</v>
+        <v>0.9998973608016968</v>
       </c>
     </row>
     <row r="95">
@@ -3082,19 +3082,19 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E95" t="b">
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9520474076271057</v>
+        <v>0.9998972415924072</v>
       </c>
     </row>
     <row r="96">
@@ -3110,19 +3110,19 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E96" t="b">
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.8469730019569397</v>
+        <v>0.9999127388000488</v>
       </c>
     </row>
     <row r="97">
@@ -3138,19 +3138,19 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E97" t="b">
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9861590266227722</v>
+        <v>0.9973996877670288</v>
       </c>
     </row>
     <row r="98">
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9872055053710938</v>
+        <v>0.9999116659164429</v>
       </c>
     </row>
     <row r="99">
@@ -3206,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9874014258384705</v>
+        <v>0.9997392296791077</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9853827953338623</v>
+        <v>0.9998849630355835</v>
       </c>
     </row>
     <row r="101">
@@ -3250,19 +3250,19 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E101" t="b">
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9123914241790771</v>
+        <v>0.9998914003372192</v>
       </c>
     </row>
     <row r="102">
@@ -3278,19 +3278,19 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E102" t="b">
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.9854877591133118</v>
+        <v>0.9937772750854492</v>
       </c>
     </row>
     <row r="103">
@@ -3318,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9494407176971436</v>
+        <v>0.9995887875556946</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9846850633621216</v>
+        <v>0.9998708963394165</v>
       </c>
     </row>
     <row r="105">
@@ -3362,19 +3362,19 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E105" t="b">
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9845610857009888</v>
+        <v>0.9996216297149658</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9847882986068726</v>
+        <v>0.9998841285705566</v>
       </c>
     </row>
     <row r="107">
@@ -3418,19 +3418,19 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E107" t="b">
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.8737672567367554</v>
+        <v>0.9996345043182373</v>
       </c>
     </row>
     <row r="108">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E108" t="b">
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.9868628978729248</v>
+        <v>0.9994268417358398</v>
       </c>
     </row>
     <row r="109">
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9875652194023132</v>
+        <v>0.9998947381973267</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9864532351493835</v>
+        <v>0.999849796295166</v>
       </c>
     </row>
     <row r="111">
@@ -3530,19 +3530,19 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E111" t="b">
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9845970273017883</v>
+        <v>0.9996778964996338</v>
       </c>
     </row>
     <row r="112">
@@ -3558,19 +3558,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E112" t="b">
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9875652194023132</v>
+        <v>0.9996034502983093</v>
       </c>
     </row>
     <row r="113">
@@ -3586,19 +3586,19 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E113" t="b">
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9865151643753052</v>
+        <v>0.999667763710022</v>
       </c>
     </row>
     <row r="114">
@@ -3614,19 +3614,19 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E114" t="b">
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.7002982497215271</v>
+        <v>0.9999030828475952</v>
       </c>
     </row>
     <row r="115">
@@ -3642,19 +3642,19 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E115" t="b">
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9847801923751831</v>
+        <v>0.9996684789657593</v>
       </c>
     </row>
     <row r="116">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9867059588432312</v>
+        <v>0.9998500347137451</v>
       </c>
     </row>
     <row r="117">
@@ -3703,14 +3703,14 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.8457338213920593</v>
+        <v>0.9998701810836792</v>
       </c>
     </row>
     <row r="118">
@@ -3726,19 +3726,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E118" t="b">
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>0.9868282079696655</v>
+        <v>0.9938405752182007</v>
       </c>
     </row>
     <row r="119">
@@ -3754,19 +3754,19 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
           <t>ParamViolation</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>ParamViolation</t>
-        </is>
-      </c>
       <c r="E119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>0.8441606760025024</v>
+        <v>0.7083879709243774</v>
       </c>
     </row>
     <row r="120">
@@ -3782,19 +3782,19 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E120" t="b">
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.6984929442405701</v>
+        <v>0.999849796295166</v>
       </c>
     </row>
     <row r="121">
@@ -3810,19 +3810,19 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E121" t="b">
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9855080246925354</v>
+        <v>0.9995915293693542</v>
       </c>
     </row>
     <row r="122">
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9861429333686829</v>
+        <v>0.9999122619628906</v>
       </c>
     </row>
     <row r="123">
@@ -3866,19 +3866,19 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E123" t="b">
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9874477982521057</v>
+        <v>0.9995915293693542</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9866011738777161</v>
+        <v>0.9999122619628906</v>
       </c>
     </row>
     <row r="125">
@@ -3922,19 +3922,19 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E125" t="b">
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9003456830978394</v>
+        <v>0.9995915293693542</v>
       </c>
     </row>
     <row r="126">
@@ -3950,19 +3950,19 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E126" t="b">
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9057319760322571</v>
+        <v>0.9999116659164429</v>
       </c>
     </row>
     <row r="127">
@@ -3978,19 +3978,19 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9057256579399109</v>
+        <v>0.9945648908615112</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.98555588722229</v>
+        <v>0.999849796295166</v>
       </c>
     </row>
     <row r="129">
@@ -4039,14 +4039,14 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9870938658714294</v>
+        <v>0.9993982315063477</v>
       </c>
     </row>
     <row r="130">
@@ -4062,19 +4062,19 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9094476699829102</v>
+        <v>0.993802547454834</v>
       </c>
     </row>
     <row r="131">
@@ -4090,19 +4090,19 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E131" t="b">
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9578990340232849</v>
+        <v>0.9998732805252075</v>
       </c>
     </row>
     <row r="132">
@@ -4118,19 +4118,19 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9855834245681763</v>
+        <v>0.9975258708000183</v>
       </c>
     </row>
     <row r="133">
@@ -4158,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9832698106765747</v>
+        <v>0.9998712539672852</v>
       </c>
     </row>
     <row r="134">
@@ -4174,7 +4174,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -4183,10 +4183,10 @@
         </is>
       </c>
       <c r="E134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9855660796165466</v>
+        <v>0.9998997449874878</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9860963225364685</v>
+        <v>0.9998847246170044</v>
       </c>
     </row>
     <row r="136">
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9847937226295471</v>
+        <v>0.9998354911804199</v>
       </c>
     </row>
     <row r="137">
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9833111763000488</v>
+        <v>0.9998728036880493</v>
       </c>
     </row>
     <row r="138">
@@ -4298,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9806305766105652</v>
+        <v>0.9998711347579956</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9876725077629089</v>
+        <v>0.9998730421066284</v>
       </c>
     </row>
     <row r="140">
@@ -4342,19 +4342,19 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E140" t="b">
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9099527597427368</v>
+        <v>0.9998531341552734</v>
       </c>
     </row>
     <row r="141">
@@ -4375,14 +4375,14 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9833111763000488</v>
+        <v>0.9698834419250488</v>
       </c>
     </row>
     <row r="142">
@@ -4398,19 +4398,19 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E142" t="b">
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9503665566444397</v>
+        <v>0.999849796295166</v>
       </c>
     </row>
     <row r="143">
@@ -4426,19 +4426,19 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E143" t="b">
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9508547782897949</v>
+        <v>0.9995715022087097</v>
       </c>
     </row>
     <row r="144">
@@ -4454,19 +4454,19 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E144" t="b">
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9094476699829102</v>
+        <v>0.9999018907546997</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E145" t="b">
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.8524717092514038</v>
+        <v>0.9995715022087097</v>
       </c>
     </row>
     <row r="146">
@@ -4510,19 +4510,19 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E146" t="b">
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9100801944732666</v>
+        <v>0.9998488426208496</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9855787754058838</v>
+        <v>0.9995884299278259</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9871143102645874</v>
+        <v>0.9998914003372192</v>
       </c>
     </row>
     <row r="149">
@@ -4594,19 +4594,19 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E149" t="b">
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9863641858100891</v>
+        <v>0.9996041655540466</v>
       </c>
     </row>
     <row r="150">
@@ -4622,19 +4622,19 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E150" t="b">
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9871436953544617</v>
+        <v>0.9992395639419556</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9855924248695374</v>
+        <v>0.999849796295166</v>
       </c>
     </row>
     <row r="152">
@@ -4678,7 +4678,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4687,10 +4687,10 @@
         </is>
       </c>
       <c r="E152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9864811897277832</v>
+        <v>0.9970310926437378</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9864863157272339</v>
+        <v>0.9999099969863892</v>
       </c>
     </row>
     <row r="154">
@@ -4734,19 +4734,19 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E154" t="b">
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.9112112522125244</v>
+        <v>0.999453604221344</v>
       </c>
     </row>
     <row r="155">
@@ -4762,19 +4762,19 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.6347761750221252</v>
+        <v>0.9999006986618042</v>
       </c>
     </row>
     <row r="156">
@@ -4790,19 +4790,19 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E156" t="b">
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9860501885414124</v>
+        <v>0.9994520545005798</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.984744131565094</v>
+        <v>0.9999042749404907</v>
       </c>
     </row>
     <row r="158">
@@ -4846,19 +4846,19 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E158" t="b">
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.8740763068199158</v>
+        <v>0.9994547963142395</v>
       </c>
     </row>
     <row r="159">
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9833111763000488</v>
+        <v>0.9999058246612549</v>
       </c>
     </row>
     <row r="160">
@@ -4902,19 +4902,19 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.7181248068809509</v>
+        <v>0.9996172189712524</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.983137845993042</v>
+        <v>0.9998935461044312</v>
       </c>
     </row>
     <row r="162">
@@ -4958,7 +4958,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4967,10 +4967,10 @@
         </is>
       </c>
       <c r="E162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9832237958908081</v>
+        <v>0.9489879012107849</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9864720106124878</v>
+        <v>0.9998728036880493</v>
       </c>
     </row>
     <row r="164">
@@ -5014,19 +5014,19 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E164" t="b">
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9834022521972656</v>
+        <v>0.9995651841163635</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9833111763000488</v>
+        <v>0.9999121427536011</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.985773503780365</v>
+        <v>0.999605119228363</v>
       </c>
     </row>
     <row r="167">
@@ -5098,19 +5098,19 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E167" t="b">
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9832130074501038</v>
+        <v>0.9995543360710144</v>
       </c>
     </row>
     <row r="168">
@@ -5131,14 +5131,14 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.985620379447937</v>
+        <v>0.9996515512466431</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9869691133499146</v>
+        <v>0.999849796295166</v>
       </c>
     </row>
     <row r="170">
@@ -5182,19 +5182,19 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E170" t="b">
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9848167300224304</v>
+        <v>0.9995543360710144</v>
       </c>
     </row>
     <row r="171">
@@ -5215,14 +5215,14 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9806278347969055</v>
+        <v>0.9996337890625</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9863874912261963</v>
+        <v>0.999849796295166</v>
       </c>
     </row>
     <row r="173">
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.9805499911308289</v>
+        <v>0.9998728036880493</v>
       </c>
     </row>
     <row r="174">
@@ -5294,19 +5294,19 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E174" t="b">
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.4245805740356445</v>
+        <v>0.9998725652694702</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9876891374588013</v>
+        <v>0.9998728036880493</v>
       </c>
     </row>
     <row r="176">
@@ -5350,7 +5350,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -5359,10 +5359,10 @@
         </is>
       </c>
       <c r="E176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9858381152153015</v>
+        <v>0.9998728036880493</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9877567291259766</v>
+        <v>0.9998725652694702</v>
       </c>
     </row>
     <row r="178">
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9870938658714294</v>
+        <v>0.9998935461044312</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9864956736564636</v>
+        <v>0.9998055100440979</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9861971735954285</v>
+        <v>0.9998730421066284</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9869725108146667</v>
+        <v>0.9998941421508789</v>
       </c>
     </row>
     <row r="182">
@@ -5518,19 +5518,19 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E182" t="b">
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.85232013463974</v>
+        <v>0.9998842477798462</v>
       </c>
     </row>
     <row r="183">
@@ -5546,19 +5546,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E183" t="b">
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.986359179019928</v>
+        <v>0.9995941519737244</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9859979152679443</v>
+        <v>0.9999042749404907</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9847500324249268</v>
+        <v>0.9999033212661743</v>
       </c>
     </row>
     <row r="186">
@@ -5642,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.9868929982185364</v>
+        <v>0.9999051094055176</v>
       </c>
     </row>
     <row r="187">
@@ -5658,19 +5658,19 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E187" t="b">
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9099527597427368</v>
+        <v>0.9999043941497803</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9828298687934875</v>
+        <v>0.9998918771743774</v>
       </c>
     </row>
     <row r="189">
@@ -5719,14 +5719,14 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.4130103290081024</v>
+        <v>0.9998965263366699</v>
       </c>
     </row>
     <row r="190">
@@ -5742,19 +5742,19 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E190" t="b">
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9408268332481384</v>
+        <v>0.9998966455459595</v>
       </c>
     </row>
     <row r="191">
@@ -5770,19 +5770,19 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E191" t="b">
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.9749776124954224</v>
+        <v>0.9969814419746399</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.986472487449646</v>
+        <v>0.9998853206634521</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9847373366355896</v>
+        <v>0.9998749494552612</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E194" t="b">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.9057319760322571</v>
+        <v>0.9995253086090088</v>
       </c>
     </row>
     <row r="195">
@@ -5882,19 +5882,19 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E195" t="b">
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.9872931241989136</v>
+        <v>0.9996898174285889</v>
       </c>
     </row>
     <row r="196">
@@ -5910,19 +5910,19 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.8915331959724426</v>
+        <v>0.999906063079834</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9847500324249268</v>
+        <v>0.9999057054519653</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9860689640045166</v>
+        <v>0.9999071359634399</v>
       </c>
     </row>
     <row r="199">
@@ -5994,19 +5994,19 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.9058169722557068</v>
+        <v>0.999890923500061</v>
       </c>
     </row>
     <row r="200">
@@ -6022,19 +6022,19 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.9847500324249268</v>
+        <v>0.9992421865463257</v>
       </c>
     </row>
     <row r="201">
@@ -6050,19 +6050,19 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E201" t="b">
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.3688728809356689</v>
+        <v>0.9998918771743774</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9876211285591125</v>
+        <v>0.9998959302902222</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.984744131565094</v>
+        <v>0.9998714923858643</v>
       </c>
     </row>
     <row r="204">
@@ -6134,19 +6134,19 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E204" t="b">
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.9058195352554321</v>
+        <v>0.999542236328125</v>
       </c>
     </row>
     <row r="205">
@@ -6162,19 +6162,19 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E205" t="b">
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9544126987457275</v>
+        <v>0.9999105930328369</v>
       </c>
     </row>
     <row r="206">
@@ -6190,7 +6190,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -6199,10 +6199,10 @@
         </is>
       </c>
       <c r="E206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.8244151473045349</v>
+        <v>0.9998710155487061</v>
       </c>
     </row>
     <row r="207">
@@ -6218,19 +6218,19 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E207" t="b">
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.8740763068199158</v>
+        <v>0.9974725842475891</v>
       </c>
     </row>
     <row r="208">
@@ -6246,19 +6246,19 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E208" t="b">
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.9131787419319153</v>
+        <v>0.9998069405555725</v>
       </c>
     </row>
     <row r="209">
@@ -6274,19 +6274,19 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E209" t="b">
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.9833111763000488</v>
+        <v>0.9943834543228149</v>
       </c>
     </row>
     <row r="210">
@@ -6302,19 +6302,19 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E210" t="b">
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.9471966028213501</v>
+        <v>0.9998710155487061</v>
       </c>
     </row>
   </sheetData>
